--- a/public/employee_template/employee_on_duty.xlsx
+++ b/public/employee_template/employee_on_duty.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="83">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -214,13 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男(m)</t>
     <rPh sb="0" eb="1">
       <t>nan</t>
@@ -521,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>belongs_payty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +601,66 @@
   </si>
   <si>
     <t>post_salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学本科</t>
+    <rPh sb="0" eb="1">
+      <t>da xue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13676997527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州市区</t>
+    <rPh sb="0" eb="1">
+      <t>zheng zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文员</t>
+    <rPh sb="0" eb="1">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yuan gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412929197510020005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国xxxx大学</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongs_party</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,11 +705,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -938,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y395"/>
+  <dimension ref="A1:Y430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -966,81 +1017,81 @@
     <col min="25" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
@@ -1102,27 +1153,90 @@
         <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27669</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="2">
+        <v>35977</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3">
+        <v>0.9</v>
+      </c>
+      <c r="V3">
+        <v>0.9</v>
+      </c>
+      <c r="W3">
+        <v>0.1</v>
+      </c>
+      <c r="X3">
+        <v>3000</v>
+      </c>
+      <c r="Y3">
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -3085,10 +3199,185 @@
         <v>20</v>
       </c>
     </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D396" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D397" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D398" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D399" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D400" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D401" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D402" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D403" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D404" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D405" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D406" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D407" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D408" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D409" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D410" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D411" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D412" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D413" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D414" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D415" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D416" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D417" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D418" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D419" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D420" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D421" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D422" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D423" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D424" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D425" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D426" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D427" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D428" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D429" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D430" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D395">
+  <dataValidations count="6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D430">
       <formula1>fm_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P238">
@@ -3100,8 +3389,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R203">
       <formula1>party_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q84 T3:T114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T114 Q3:Q84">
       <formula1>boolean_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>fm_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3126,97 +3418,97 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/public/employee_template/employee_on_duty.xlsx
+++ b/public/employee_template/employee_on_duty.xlsx
@@ -32,8 +32,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>inner inner</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>inner inner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+科室名称必须与系统的科室名称一致</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>inner inner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+系统以身份证号来更新员工信息</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="82">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -446,14 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>belong_to_org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,14 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大学本科</t>
     <rPh sb="0" eb="1">
       <t>da xue</t>
@@ -646,10 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>412929197510020005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国xxxx大学</t>
     <rPh sb="0" eb="1">
       <t>zhong guo</t>
@@ -661,6 +699,37 @@
   </si>
   <si>
     <t>belongs_party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <rPh sb="0" eb="1">
+      <t>ban gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongs_to_org</t>
+    <rPh sb="6" eb="7">
+      <t>shi nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412929197510020005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,6 +752,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -988,17 +1070,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
@@ -1017,81 +1100,78 @@
     <col min="25" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="47" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
@@ -1153,19 +1233,19 @@
         <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>18</v>
@@ -1176,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1188,25 +1268,25 @@
         <v>27669</v>
       </c>
       <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2">
         <v>35977</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
@@ -3398,6 +3478,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
